--- a/data/processed/Disasters_in_africa_2000_2018_processed.xlsx
+++ b/data/processed/Disasters_in_africa_2000_2018_processed.xlsx
@@ -2,25 +2,29 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nschl\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nschl\Documents\AIMS_MSc_Project_CERI\GitHub\CERI-Project\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343E6965-B9BC-4AAB-B6F2-FBAB981DB1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065F3D91-CADF-4D17-9DDE-FEC6C4947F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="2540" windowWidth="18800" windowHeight="9970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Disasters" sheetId="1" r:id="rId1"/>
+    <sheet name="2008" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3961" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4213" uniqueCount="1067">
   <si>
     <t>disasterno</t>
   </si>
@@ -3209,6 +3213,18 @@
   </si>
   <si>
     <t>2018-0387</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Country</t>
   </si>
 </sst>
 </file>
@@ -3216,7 +3232,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -3267,12 +3283,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3288,6 +3309,320 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Annes Chelfat" refreshedDate="45435.597760185185" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="58" xr:uid="{45D9F4DB-54A9-446D-A5AA-5F5F39E4E820}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:B1048576" sheet="2008"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="Country" numFmtId="0">
+      <sharedItems containsBlank="1" count="16">
+        <s v="Angola"/>
+        <s v="Burundi"/>
+        <s v="Ethiopia"/>
+        <s v="Ghana"/>
+        <s v="Kenya"/>
+        <s v="Madagascar"/>
+        <s v="Malawi"/>
+        <s v="Mozambique"/>
+        <s v="Namibia"/>
+        <s v="Niger"/>
+        <s v="Rwanda"/>
+        <s v="Senegal"/>
+        <s v="South Sudan"/>
+        <s v="Togo"/>
+        <s v="Uganda"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="58">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{054A43DC-97EE-4C2A-AB8B-21F4D4087BD7}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="M4:N21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="17">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Country" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3577,8 +3912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I989"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3627,28 +3962,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="F2" s="2">
-        <v>37043</v>
+        <v>36526</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>11.245255739999999</v>
+        <v>12.34528025</v>
       </c>
       <c r="I2">
-        <v>42.908943540000003</v>
+        <v>23.438724000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -3656,10 +3991,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -3671,42 +4006,42 @@
         <v>36526</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H3">
-        <v>12.34528025</v>
+        <v>4.6631437160000004</v>
       </c>
       <c r="I3">
-        <v>23.438724000000001</v>
+        <v>43.99143085</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>2000</v>
       </c>
       <c r="F4" s="2">
-        <v>36526</v>
+        <v>36551</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>800</v>
       </c>
       <c r="H4">
-        <v>4.6631437160000004</v>
+        <v>-26.524359740000001</v>
       </c>
       <c r="I4">
-        <v>43.99143085</v>
+        <v>32.561549509999999</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -3717,7 +4052,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -3732,10 +4067,10 @@
         <v>800</v>
       </c>
       <c r="H5">
-        <v>-26.524359740000001</v>
+        <v>-25.30894953</v>
       </c>
       <c r="I5">
-        <v>32.561549509999999</v>
+        <v>32.82550277</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -3746,7 +4081,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -3761,10 +4096,10 @@
         <v>800</v>
       </c>
       <c r="H6">
-        <v>-25.30894953</v>
+        <v>-24.701850449999998</v>
       </c>
       <c r="I6">
-        <v>32.82550277</v>
+        <v>32.43940654</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -3775,7 +4110,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -3790,10 +4125,10 @@
         <v>800</v>
       </c>
       <c r="H7">
-        <v>-24.701850449999998</v>
+        <v>-24.300443170000001</v>
       </c>
       <c r="I7">
-        <v>32.43940654</v>
+        <v>33.61295063</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -3804,7 +4139,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -3819,10 +4154,10 @@
         <v>800</v>
       </c>
       <c r="H8">
-        <v>-24.300443170000001</v>
+        <v>-24.561774119999999</v>
       </c>
       <c r="I8">
-        <v>33.61295063</v>
+        <v>32.955292649999997</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -3833,7 +4168,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -3848,10 +4183,10 @@
         <v>800</v>
       </c>
       <c r="H9">
-        <v>-24.561774119999999</v>
+        <v>-22.808879009999998</v>
       </c>
       <c r="I9">
-        <v>32.955292649999997</v>
+        <v>34.514646130000003</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -3862,7 +4197,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -3877,10 +4212,10 @@
         <v>800</v>
       </c>
       <c r="H10">
-        <v>-22.808879009999998</v>
+        <v>-19.06197641</v>
       </c>
       <c r="I10">
-        <v>34.514646130000003</v>
+        <v>34.675341080000003</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -3891,7 +4226,7 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -3906,21 +4241,21 @@
         <v>800</v>
       </c>
       <c r="H11">
-        <v>-19.06197641</v>
+        <v>-19.021834420000001</v>
       </c>
       <c r="I11">
-        <v>34.675341080000003</v>
+        <v>33.429400880000003</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -3929,27 +4264,27 @@
         <v>2000</v>
       </c>
       <c r="F12" s="2">
-        <v>36551</v>
+        <v>36557</v>
       </c>
       <c r="G12">
-        <v>800</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>-19.021834420000001</v>
+        <v>-21.979188140000002</v>
       </c>
       <c r="I12">
-        <v>33.429400880000003</v>
+        <v>27.848959270000002</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -3958,45 +4293,45 @@
         <v>2000</v>
       </c>
       <c r="F13" s="2">
-        <v>36557</v>
+        <v>36551</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="H13">
-        <v>-21.979188140000002</v>
+        <v>-19.77967026</v>
       </c>
       <c r="I13">
-        <v>27.848959270000002</v>
+        <v>32.720243410000002</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E14">
         <v>2000</v>
       </c>
       <c r="F14" s="2">
-        <v>36551</v>
+        <v>36573</v>
       </c>
       <c r="G14">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="H14">
-        <v>-19.77967026</v>
+        <v>-20.03218541</v>
       </c>
       <c r="I14">
-        <v>32.720243410000002</v>
+        <v>48.518101969999996</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -4007,7 +4342,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
         <v>37</v>
@@ -4022,10 +4357,10 @@
         <v>130</v>
       </c>
       <c r="H15">
-        <v>-20.03218541</v>
+        <v>-19.36169202</v>
       </c>
       <c r="I15">
-        <v>48.518101969999996</v>
+        <v>48.776939239999997</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -4036,7 +4371,7 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
         <v>37</v>
@@ -4051,10 +4386,10 @@
         <v>130</v>
       </c>
       <c r="H16">
-        <v>-19.36169202</v>
+        <v>-19.299952229999999</v>
       </c>
       <c r="I16">
-        <v>48.776939239999997</v>
+        <v>47.746411369999997</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -4065,7 +4400,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
         <v>37</v>
@@ -4080,10 +4415,10 @@
         <v>130</v>
       </c>
       <c r="H17">
-        <v>-19.299952229999999</v>
+        <v>-19.457765250000001</v>
       </c>
       <c r="I17">
-        <v>47.746411369999997</v>
+        <v>47.56519102</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -4094,7 +4429,7 @@
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
         <v>37</v>
@@ -4109,10 +4444,10 @@
         <v>130</v>
       </c>
       <c r="H18">
-        <v>-19.457765250000001</v>
+        <v>-15.22264112</v>
       </c>
       <c r="I18">
-        <v>47.56519102</v>
+        <v>50.142769340000001</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -4123,7 +4458,7 @@
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
         <v>37</v>
@@ -4138,10 +4473,10 @@
         <v>130</v>
       </c>
       <c r="H19">
-        <v>-15.22264112</v>
+        <v>-14.21476942</v>
       </c>
       <c r="I19">
-        <v>50.142769340000001</v>
+        <v>49.784644479999997</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -4152,7 +4487,7 @@
         <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
         <v>37</v>
@@ -4167,10 +4502,10 @@
         <v>130</v>
       </c>
       <c r="H20">
-        <v>-14.21476942</v>
+        <v>-14.56811087</v>
       </c>
       <c r="I20">
-        <v>49.784644479999997</v>
+        <v>49.555315520000001</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -4181,7 +4516,7 @@
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
         <v>37</v>
@@ -4196,21 +4531,21 @@
         <v>130</v>
       </c>
       <c r="H21">
-        <v>-14.56811087</v>
+        <v>-20.579185620000001</v>
       </c>
       <c r="I21">
-        <v>49.555315520000001</v>
+        <v>44.38249914</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
         <v>37</v>
@@ -4219,16 +4554,16 @@
         <v>2000</v>
       </c>
       <c r="F22" s="2">
-        <v>36573</v>
+        <v>36618</v>
       </c>
       <c r="G22">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="H22">
-        <v>-20.579185620000001</v>
+        <v>-15.22264112</v>
       </c>
       <c r="I22">
-        <v>44.38249914</v>
+        <v>50.142769340000001</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -4239,7 +4574,7 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
         <v>37</v>
@@ -4254,10 +4589,10 @@
         <v>23</v>
       </c>
       <c r="H23">
-        <v>-15.22264112</v>
+        <v>-14.21476942</v>
       </c>
       <c r="I23">
-        <v>50.142769340000001</v>
+        <v>49.784644479999997</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -4265,10 +4600,10 @@
         <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
         <v>37</v>
@@ -4280,13 +4615,13 @@
         <v>36618</v>
       </c>
       <c r="G24">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>-14.21476942</v>
+        <v>-16.088544150000001</v>
       </c>
       <c r="I24">
-        <v>49.784644479999997</v>
+        <v>39.805346149999998</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -4297,7 +4632,7 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
         <v>37</v>
@@ -4312,50 +4647,50 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>-16.088544150000001</v>
+        <v>-16.355318650000001</v>
       </c>
       <c r="I25">
-        <v>39.805346149999998</v>
+        <v>39.269420770000004</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>2000</v>
       </c>
       <c r="F26" s="2">
-        <v>36618</v>
+        <v>36647</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>-16.355318650000001</v>
+        <v>2.984045536</v>
       </c>
       <c r="I26">
-        <v>39.269420770000004</v>
+        <v>45.564202330000001</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
         <v>20</v>
@@ -4364,74 +4699,74 @@
         <v>2000</v>
       </c>
       <c r="F27" s="2">
-        <v>36647</v>
+        <v>36708</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>2.984045536</v>
+        <v>13.198258360000001</v>
       </c>
       <c r="I27">
-        <v>45.564202330000001</v>
+        <v>3.5418201520000001</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E28">
         <v>2000</v>
       </c>
       <c r="F28" s="2">
-        <v>36708</v>
+        <v>36848</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H28">
-        <v>13.198258360000001</v>
+        <v>-16.651333040000001</v>
       </c>
       <c r="I28">
-        <v>3.5418201520000001</v>
+        <v>36.98316268</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E29">
         <v>2000</v>
       </c>
       <c r="F29" s="2">
-        <v>36848</v>
+        <v>36882</v>
       </c>
       <c r="G29">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H29">
-        <v>-16.651333040000001</v>
+        <v>35.55198867</v>
       </c>
       <c r="I29">
-        <v>36.98316268</v>
+        <v>-5.903672566</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -4442,7 +4777,7 @@
         <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
         <v>20</v>
@@ -4457,10 +4792,10 @@
         <v>6</v>
       </c>
       <c r="H30">
-        <v>35.55198867</v>
+        <v>35.03866215</v>
       </c>
       <c r="I30">
-        <v>-5.903672566</v>
+        <v>-5.1004892650000002</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -4471,7 +4806,7 @@
         <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
         <v>20</v>
@@ -4486,68 +4821,68 @@
         <v>6</v>
       </c>
       <c r="H31">
-        <v>35.03866215</v>
+        <v>32.958253280000001</v>
       </c>
       <c r="I31">
-        <v>-5.1004892650000002</v>
+        <v>-7.4620769500000002</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E32">
         <v>2000</v>
       </c>
       <c r="F32" s="2">
-        <v>36882</v>
+        <v>36678</v>
       </c>
       <c r="G32">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>32.958253280000001</v>
+        <v>-24.862871500000001</v>
       </c>
       <c r="I32">
-        <v>-7.4620769500000002</v>
+        <v>45.779604650000003</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="F33" s="2">
-        <v>36678</v>
+        <v>37043</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>-24.862871500000001</v>
+        <v>11.245255739999999</v>
       </c>
       <c r="I33">
-        <v>45.779604650000003</v>
+        <v>42.908943540000003</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -6527,39 +6862,39 @@
         <v>154</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C102" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
       </c>
       <c r="E102">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="F102" s="2">
-        <v>37316</v>
+        <v>36951</v>
       </c>
       <c r="G102">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>-25.527591990000001</v>
+        <v>-18.873721320000001</v>
       </c>
       <c r="I102">
-        <v>32.45011452</v>
+        <v>29.560834839999998</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B103" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C103" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D103" t="s">
         <v>12</v>
@@ -6568,27 +6903,27 @@
         <v>2001</v>
       </c>
       <c r="F103" s="2">
-        <v>36951</v>
+        <v>36892</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="H103">
-        <v>-18.873721320000001</v>
+        <v>-10.82598035</v>
       </c>
       <c r="I103">
-        <v>29.560834839999998</v>
+        <v>15.044849409999999</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B104" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="C104" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
@@ -6597,45 +6932,45 @@
         <v>2001</v>
       </c>
       <c r="F104" s="2">
-        <v>36892</v>
+        <v>36982</v>
       </c>
       <c r="G104">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>-10.82598035</v>
+        <v>16.580273729999998</v>
       </c>
       <c r="I104">
-        <v>15.044849409999999</v>
+        <v>-11.53599762</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B105" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="C105" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D105" t="s">
         <v>12</v>
       </c>
       <c r="E105">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="F105" s="2">
-        <v>36982</v>
+        <v>37316</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H105">
-        <v>16.580273729999998</v>
+        <v>-25.527591990000001</v>
       </c>
       <c r="I105">
-        <v>-11.53599762</v>
+        <v>32.45011452</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
@@ -24086,65 +24421,68 @@
         <v>773</v>
       </c>
       <c r="B708" t="s">
-        <v>309</v>
+        <v>15</v>
       </c>
       <c r="C708" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D708" t="s">
         <v>12</v>
       </c>
       <c r="E708">
-        <v>2011</v>
+        <v>2010</v>
+      </c>
+      <c r="F708" s="2">
+        <v>40210</v>
       </c>
       <c r="G708">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="H708">
-        <v>-3.0072852989999999</v>
+        <v>4.203733604</v>
       </c>
       <c r="I708">
-        <v>29.65896884</v>
+        <v>43.947488499999999</v>
       </c>
     </row>
     <row r="709" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B709" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="C709" t="s">
-        <v>707</v>
+        <v>777</v>
       </c>
       <c r="D709" t="s">
         <v>12</v>
       </c>
       <c r="E709">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F709" s="2">
-        <v>40544</v>
+        <v>40299</v>
       </c>
       <c r="G709">
         <v>0</v>
       </c>
       <c r="H709">
-        <v>6.9189828459999996</v>
+        <v>-19.06116231</v>
       </c>
       <c r="I709">
-        <v>43.335824389999999</v>
+        <v>32.397513570000001</v>
       </c>
     </row>
     <row r="710" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="B710" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C710" t="s">
-        <v>775</v>
+        <v>493</v>
       </c>
       <c r="D710" t="s">
         <v>12</v>
@@ -24153,56 +24491,56 @@
         <v>2010</v>
       </c>
       <c r="F710" s="2">
-        <v>40210</v>
+        <v>40330</v>
       </c>
       <c r="G710">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H710">
-        <v>4.203733604</v>
+        <v>13.872913090000001</v>
       </c>
       <c r="I710">
-        <v>43.947488499999999</v>
+        <v>-10.23041578</v>
       </c>
     </row>
     <row r="711" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="B711" t="s">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="C711" t="s">
-        <v>237</v>
+        <v>155</v>
       </c>
       <c r="D711" t="s">
         <v>12</v>
       </c>
       <c r="E711">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F711" s="2">
-        <v>40603</v>
+        <v>40238</v>
       </c>
       <c r="G711">
         <v>0</v>
       </c>
       <c r="H711">
-        <v>3.5581864890000001</v>
+        <v>-25.527591990000001</v>
       </c>
       <c r="I711">
-        <v>34.120077389999999</v>
+        <v>32.45011452</v>
       </c>
     </row>
     <row r="712" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="B712" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="C712" t="s">
-        <v>777</v>
+        <v>161</v>
       </c>
       <c r="D712" t="s">
         <v>12</v>
@@ -24210,101 +24548,98 @@
       <c r="E712">
         <v>2010</v>
       </c>
-      <c r="F712" s="2">
-        <v>40299</v>
-      </c>
       <c r="G712">
         <v>0</v>
       </c>
       <c r="H712">
-        <v>-19.06116231</v>
+        <v>16.580273729999998</v>
       </c>
       <c r="I712">
-        <v>32.397513570000001</v>
+        <v>-11.53599762</v>
       </c>
     </row>
     <row r="713" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B713" t="s">
-        <v>104</v>
+        <v>309</v>
       </c>
       <c r="C713" t="s">
-        <v>493</v>
+        <v>774</v>
       </c>
       <c r="D713" t="s">
         <v>12</v>
       </c>
       <c r="E713">
-        <v>2010</v>
-      </c>
-      <c r="F713" s="2">
-        <v>40330</v>
+        <v>2011</v>
       </c>
       <c r="G713">
         <v>0</v>
       </c>
       <c r="H713">
-        <v>13.872913090000001</v>
+        <v>-3.0072852989999999</v>
       </c>
       <c r="I713">
-        <v>-10.23041578</v>
+        <v>29.65896884</v>
       </c>
     </row>
     <row r="714" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B714" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="C714" t="s">
-        <v>155</v>
+        <v>707</v>
       </c>
       <c r="D714" t="s">
         <v>12</v>
       </c>
       <c r="E714">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F714" s="2">
-        <v>40238</v>
+        <v>40544</v>
       </c>
       <c r="G714">
         <v>0</v>
       </c>
       <c r="H714">
-        <v>-25.527591990000001</v>
+        <v>6.9189828459999996</v>
       </c>
       <c r="I714">
-        <v>32.45011452</v>
+        <v>43.335824389999999</v>
       </c>
     </row>
     <row r="715" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="B715" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="C715" t="s">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="D715" t="s">
         <v>12</v>
       </c>
       <c r="E715">
-        <v>2010</v>
+        <v>2011</v>
+      </c>
+      <c r="F715" s="2">
+        <v>40603</v>
       </c>
       <c r="G715">
         <v>0</v>
       </c>
       <c r="H715">
-        <v>16.580273729999998</v>
+        <v>3.5581864890000001</v>
       </c>
       <c r="I715">
-        <v>-11.53599762</v>
+        <v>34.120077389999999</v>
       </c>
     </row>
     <row r="716" spans="1:9" x14ac:dyDescent="0.35">
@@ -25904,25 +26239,25 @@
         <v>835</v>
       </c>
       <c r="B771" t="s">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="C771" t="s">
-        <v>360</v>
+        <v>436</v>
       </c>
       <c r="D771" t="s">
         <v>12</v>
       </c>
       <c r="E771">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G771">
         <v>0</v>
       </c>
       <c r="H771">
-        <v>9.6062690239999995</v>
+        <v>1.810589545</v>
       </c>
       <c r="I771">
-        <v>42.003026630000001</v>
+        <v>40.034063039999999</v>
       </c>
     </row>
     <row r="772" spans="1:9" x14ac:dyDescent="0.35">
@@ -25930,25 +26265,25 @@
         <v>835</v>
       </c>
       <c r="B772" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="C772" t="s">
-        <v>436</v>
+        <v>360</v>
       </c>
       <c r="D772" t="s">
         <v>12</v>
       </c>
       <c r="E772">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="G772">
         <v>0</v>
       </c>
       <c r="H772">
-        <v>1.810589545</v>
+        <v>9.6062690239999995</v>
       </c>
       <c r="I772">
-        <v>40.034063039999999</v>
+        <v>42.003026630000001</v>
       </c>
     </row>
     <row r="773" spans="1:9" x14ac:dyDescent="0.35">
@@ -32242,6 +32577,1795 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I989">
+    <sortCondition ref="E3:E989"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638B5174-23BD-4202-87C8-4052EAFE3DD5}">
+  <dimension ref="A1:N57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>2008</v>
+      </c>
+      <c r="F2" s="2">
+        <v>39478</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>-17.369043009999999</v>
+      </c>
+      <c r="I2">
+        <v>19.41441566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>2008</v>
+      </c>
+      <c r="F3" s="2">
+        <v>39478</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>-16.390299710000001</v>
+      </c>
+      <c r="I3">
+        <v>18.732975589999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>2008</v>
+      </c>
+      <c r="F4" s="2">
+        <v>39478</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>-16.85911827</v>
+      </c>
+      <c r="I4">
+        <v>21.949973079999999</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>588</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>592</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2008</v>
+      </c>
+      <c r="F5" s="2">
+        <v>39478</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>-16.12568198</v>
+      </c>
+      <c r="I5">
+        <v>20.291123729999999</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>588</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>593</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2008</v>
+      </c>
+      <c r="F6" s="2">
+        <v>39478</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>-15.492736320000001</v>
+      </c>
+      <c r="I6">
+        <v>12.72775373</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="N6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>588</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>400</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2008</v>
+      </c>
+      <c r="F7" s="2">
+        <v>39478</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>-14.74304821</v>
+      </c>
+      <c r="I7">
+        <v>14.95081339</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>610</v>
+      </c>
+      <c r="B8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" t="s">
+        <v>611</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2008</v>
+      </c>
+      <c r="F8" s="2">
+        <v>39711</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>-3.5293111349999999</v>
+      </c>
+      <c r="I8">
+        <v>29.43399578</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>610</v>
+      </c>
+      <c r="B9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C9" t="s">
+        <v>612</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2008</v>
+      </c>
+      <c r="F9" s="2">
+        <v>39711</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>-3.534040627</v>
+      </c>
+      <c r="I9">
+        <v>29.368290949999999</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="N9" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>610</v>
+      </c>
+      <c r="B10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" t="s">
+        <v>613</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2008</v>
+      </c>
+      <c r="F10" s="2">
+        <v>39711</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>-3.62489902</v>
+      </c>
+      <c r="I10">
+        <v>29.41517369</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>610</v>
+      </c>
+      <c r="B11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11" t="s">
+        <v>614</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2008</v>
+      </c>
+      <c r="F11" s="2">
+        <v>39711</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>-2.8107107060000001</v>
+      </c>
+      <c r="I11">
+        <v>29.88204687</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>634</v>
+      </c>
+      <c r="B12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12" t="s">
+        <v>310</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>2008</v>
+      </c>
+      <c r="F12" s="2">
+        <v>39692</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>-2.5440189950000001</v>
+      </c>
+      <c r="I12">
+        <v>30.157644470000001</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>617</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>428</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2008</v>
+      </c>
+      <c r="F13" s="2">
+        <v>39768</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>5.4521770309999997</v>
+      </c>
+      <c r="I13">
+        <v>44.760284069999997</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="N13" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>617</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>427</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2008</v>
+      </c>
+      <c r="F14" s="2">
+        <v>39768</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>5.7392423920000004</v>
+      </c>
+      <c r="I14">
+        <v>44.173145580000003</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>628</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>377</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>2008</v>
+      </c>
+      <c r="F15" s="2">
+        <v>39569</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>7.5072366109999997</v>
+      </c>
+      <c r="I15">
+        <v>38.765441580000001</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="N15" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>625</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>626</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>2008</v>
+      </c>
+      <c r="F16" s="2">
+        <v>39630</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>10.296970119999999</v>
+      </c>
+      <c r="I16">
+        <v>-1.0648793080000001</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="N16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>618</v>
+      </c>
+      <c r="B17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" t="s">
+        <v>432</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2008</v>
+      </c>
+      <c r="F17" s="2">
+        <v>39762</v>
+      </c>
+      <c r="G17">
+        <v>17</v>
+      </c>
+      <c r="H17">
+        <v>3.4384239860000001</v>
+      </c>
+      <c r="I17">
+        <v>40.736728749999997</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="N17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>618</v>
+      </c>
+      <c r="B18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2008</v>
+      </c>
+      <c r="F18" s="2">
+        <v>39762</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <v>-0.49032983899999999</v>
+      </c>
+      <c r="I18">
+        <v>40.205213229999998</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="N18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>618</v>
+      </c>
+      <c r="B19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>2008</v>
+      </c>
+      <c r="F19" s="2">
+        <v>39762</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>-0.98966184599999996</v>
+      </c>
+      <c r="I19">
+        <v>34.365570239999997</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="N19" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>629</v>
+      </c>
+      <c r="B20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" t="s">
+        <v>630</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>2008</v>
+      </c>
+      <c r="F20" s="2">
+        <v>39630</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>0.38840393699999998</v>
+      </c>
+      <c r="I20">
+        <v>35.74599628</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>585</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>586</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21">
+        <v>2008</v>
+      </c>
+      <c r="F21" s="2">
+        <v>39474</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
+      <c r="H21">
+        <v>-17.714169309999999</v>
+      </c>
+      <c r="I21">
+        <v>44.808304079999999</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="N21" s="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>585</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>587</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22">
+        <v>2008</v>
+      </c>
+      <c r="F22" s="2">
+        <v>39474</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+      <c r="H22">
+        <v>-16.271912180000001</v>
+      </c>
+      <c r="I22">
+        <v>46.217586099999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>598</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>599</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23">
+        <v>2008</v>
+      </c>
+      <c r="F23" s="2">
+        <v>39495</v>
+      </c>
+      <c r="G23">
+        <v>93</v>
+      </c>
+      <c r="H23">
+        <v>-17.225725700000002</v>
+      </c>
+      <c r="I23">
+        <v>46.997011290000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>635</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>636</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>2008</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>-23.055979019999999</v>
+      </c>
+      <c r="I24">
+        <v>44.43057924</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>627</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>223</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>2008</v>
+      </c>
+      <c r="F25" s="2">
+        <v>39783</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>-15.036430709999999</v>
+      </c>
+      <c r="I25">
+        <v>35.056191099999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>600</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>601</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26">
+        <v>2008</v>
+      </c>
+      <c r="F26" s="2">
+        <v>39515</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <v>-15.059299319999999</v>
+      </c>
+      <c r="I26">
+        <v>40.518645419999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>600</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27">
+        <v>2008</v>
+      </c>
+      <c r="F27" s="2">
+        <v>39515</v>
+      </c>
+      <c r="G27">
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <v>-16.355318650000001</v>
+      </c>
+      <c r="I27">
+        <v>39.269420770000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>600</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28">
+        <v>2008</v>
+      </c>
+      <c r="F28" s="2">
+        <v>39515</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
+      <c r="H28">
+        <v>-16.651333040000001</v>
+      </c>
+      <c r="I28">
+        <v>36.98316268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>624</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>566</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29">
+        <v>2008</v>
+      </c>
+      <c r="F29" s="2">
+        <v>39810</v>
+      </c>
+      <c r="G29">
+        <v>25</v>
+      </c>
+      <c r="H29">
+        <v>-20.512286509999999</v>
+      </c>
+      <c r="I29">
+        <v>32.944521100000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>624</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>2008</v>
+      </c>
+      <c r="F30" s="2">
+        <v>39810</v>
+      </c>
+      <c r="G30">
+        <v>25</v>
+      </c>
+      <c r="H30">
+        <v>-25.888582849999999</v>
+      </c>
+      <c r="I30">
+        <v>32.560039539999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>624</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>2008</v>
+      </c>
+      <c r="F31" s="2">
+        <v>39810</v>
+      </c>
+      <c r="G31">
+        <v>25</v>
+      </c>
+      <c r="H31">
+        <v>-22.808879009999998</v>
+      </c>
+      <c r="I31">
+        <v>34.514646130000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>624</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>577</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2008</v>
+      </c>
+      <c r="F32" s="2">
+        <v>39810</v>
+      </c>
+      <c r="G32">
+        <v>25</v>
+      </c>
+      <c r="H32">
+        <v>-23.32047206</v>
+      </c>
+      <c r="I32">
+        <v>32.804083499999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>633</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>2008</v>
+      </c>
+      <c r="F33" s="2">
+        <v>39783</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>-25.527591990000001</v>
+      </c>
+      <c r="I33">
+        <v>32.45011452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>588</v>
+      </c>
+      <c r="B34" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" t="s">
+        <v>594</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>2008</v>
+      </c>
+      <c r="F34" s="2">
+        <v>39477</v>
+      </c>
+      <c r="G34">
+        <v>42</v>
+      </c>
+      <c r="H34">
+        <v>-18.279644080000001</v>
+      </c>
+      <c r="I34">
+        <v>14.894576750000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>588</v>
+      </c>
+      <c r="B35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" t="s">
+        <v>595</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>2008</v>
+      </c>
+      <c r="F35" s="2">
+        <v>39477</v>
+      </c>
+      <c r="G35">
+        <v>42</v>
+      </c>
+      <c r="H35">
+        <v>-18.430097830000001</v>
+      </c>
+      <c r="I35">
+        <v>15.722916939999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>588</v>
+      </c>
+      <c r="B36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C36" t="s">
+        <v>596</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>2008</v>
+      </c>
+      <c r="F36" s="2">
+        <v>39477</v>
+      </c>
+      <c r="G36">
+        <v>42</v>
+      </c>
+      <c r="H36">
+        <v>-18.598331659999999</v>
+      </c>
+      <c r="I36">
+        <v>17.004533930000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>588</v>
+      </c>
+      <c r="B37" t="s">
+        <v>228</v>
+      </c>
+      <c r="C37" t="s">
+        <v>597</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <v>2008</v>
+      </c>
+      <c r="F37" s="2">
+        <v>39477</v>
+      </c>
+      <c r="G37">
+        <v>42</v>
+      </c>
+      <c r="H37">
+        <v>-17.584412589999999</v>
+      </c>
+      <c r="I37">
+        <v>16.813122499999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>607</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="s">
+        <v>419</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38">
+        <v>2008</v>
+      </c>
+      <c r="F38" s="2">
+        <v>39630</v>
+      </c>
+      <c r="G38">
+        <v>7</v>
+      </c>
+      <c r="H38">
+        <v>14.98697187</v>
+      </c>
+      <c r="I38">
+        <v>10.03136022</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>583</v>
+      </c>
+      <c r="B39" t="s">
+        <v>311</v>
+      </c>
+      <c r="C39" t="s">
+        <v>584</v>
+      </c>
+      <c r="D39" t="s">
+        <v>271</v>
+      </c>
+      <c r="E39">
+        <v>2008</v>
+      </c>
+      <c r="F39" s="2">
+        <v>39481</v>
+      </c>
+      <c r="G39">
+        <v>36</v>
+      </c>
+      <c r="H39">
+        <v>-2.5612705359999999</v>
+      </c>
+      <c r="I39">
+        <v>29.080461509999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>615</v>
+      </c>
+      <c r="B40" t="s">
+        <v>311</v>
+      </c>
+      <c r="C40" t="s">
+        <v>477</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <v>2008</v>
+      </c>
+      <c r="F40" s="2">
+        <v>39722</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>-1.6659980059999999</v>
+      </c>
+      <c r="I40">
+        <v>29.331068680000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>615</v>
+      </c>
+      <c r="B41" t="s">
+        <v>311</v>
+      </c>
+      <c r="C41" t="s">
+        <v>616</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41">
+        <v>2008</v>
+      </c>
+      <c r="F41" s="2">
+        <v>39722</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>-2.1834982780000001</v>
+      </c>
+      <c r="I41">
+        <v>30.45552992</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>608</v>
+      </c>
+      <c r="B42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" t="s">
+        <v>609</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <v>2008</v>
+      </c>
+      <c r="F42" s="2">
+        <v>39675</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>14.7820716</v>
+      </c>
+      <c r="I42">
+        <v>-16.119819410000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>608</v>
+      </c>
+      <c r="B43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" t="s">
+        <v>538</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43">
+        <v>2008</v>
+      </c>
+      <c r="F43" s="2">
+        <v>39675</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>13.97026542</v>
+      </c>
+      <c r="I43">
+        <v>-15.9316131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>620</v>
+      </c>
+      <c r="B44" t="s">
+        <v>621</v>
+      </c>
+      <c r="C44" t="s">
+        <v>622</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44">
+        <v>2008</v>
+      </c>
+      <c r="F44" s="2">
+        <v>39776</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>7.3787928520000001</v>
+      </c>
+      <c r="I44">
+        <v>32.327645740000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>620</v>
+      </c>
+      <c r="B45" t="s">
+        <v>621</v>
+      </c>
+      <c r="C45" t="s">
+        <v>623</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>2008</v>
+      </c>
+      <c r="F45" s="2">
+        <v>39776</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>9.8880356329999994</v>
+      </c>
+      <c r="I45">
+        <v>32.795899089999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>602</v>
+      </c>
+      <c r="B46" t="s">
+        <v>603</v>
+      </c>
+      <c r="C46" t="s">
+        <v>604</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <v>2008</v>
+      </c>
+      <c r="F46" s="2">
+        <v>39630</v>
+      </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
+      <c r="H46">
+        <v>7.5420313439999997</v>
+      </c>
+      <c r="I46">
+        <v>1.0015443820000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>602</v>
+      </c>
+      <c r="B47" t="s">
+        <v>603</v>
+      </c>
+      <c r="C47" t="s">
+        <v>605</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47">
+        <v>2008</v>
+      </c>
+      <c r="F47" s="2">
+        <v>39630</v>
+      </c>
+      <c r="G47">
+        <v>6</v>
+      </c>
+      <c r="H47">
+        <v>6.9763817069999998</v>
+      </c>
+      <c r="I47">
+        <v>0.75947929599999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>602</v>
+      </c>
+      <c r="B48" t="s">
+        <v>603</v>
+      </c>
+      <c r="C48" t="s">
+        <v>606</v>
+      </c>
+      <c r="D48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48">
+        <v>2008</v>
+      </c>
+      <c r="F48" s="2">
+        <v>39630</v>
+      </c>
+      <c r="G48">
+        <v>6</v>
+      </c>
+      <c r="H48">
+        <v>6.3732584049999996</v>
+      </c>
+      <c r="I48">
+        <v>1.4958612200000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>619</v>
+      </c>
+      <c r="B49" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" t="s">
+        <v>521</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49">
+        <v>2008</v>
+      </c>
+      <c r="F49" s="2">
+        <v>39769</v>
+      </c>
+      <c r="G49">
+        <v>49</v>
+      </c>
+      <c r="H49">
+        <v>3.2289404080000002</v>
+      </c>
+      <c r="I49">
+        <v>31.76921686</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>619</v>
+      </c>
+      <c r="B50" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" t="s">
+        <v>523</v>
+      </c>
+      <c r="D50" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50">
+        <v>2008</v>
+      </c>
+      <c r="F50" s="2">
+        <v>39769</v>
+      </c>
+      <c r="G50">
+        <v>49</v>
+      </c>
+      <c r="H50">
+        <v>3.530972131</v>
+      </c>
+      <c r="I50">
+        <v>31.671506569999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>619</v>
+      </c>
+      <c r="B51" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" t="s">
+        <v>518</v>
+      </c>
+      <c r="D51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51">
+        <v>2008</v>
+      </c>
+      <c r="F51" s="2">
+        <v>39769</v>
+      </c>
+      <c r="G51">
+        <v>49</v>
+      </c>
+      <c r="H51">
+        <v>1.8651587270000001</v>
+      </c>
+      <c r="I51">
+        <v>34.64910502</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>619</v>
+      </c>
+      <c r="B52" t="s">
+        <v>191</v>
+      </c>
+      <c r="C52" t="s">
+        <v>517</v>
+      </c>
+      <c r="D52" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52">
+        <v>2008</v>
+      </c>
+      <c r="F52" s="2">
+        <v>39769</v>
+      </c>
+      <c r="G52">
+        <v>49</v>
+      </c>
+      <c r="H52">
+        <v>2.504859138</v>
+      </c>
+      <c r="I52">
+        <v>34.392409450000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>619</v>
+      </c>
+      <c r="B53" t="s">
+        <v>191</v>
+      </c>
+      <c r="C53" t="s">
+        <v>237</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53">
+        <v>2008</v>
+      </c>
+      <c r="F53" s="2">
+        <v>39769</v>
+      </c>
+      <c r="G53">
+        <v>49</v>
+      </c>
+      <c r="H53">
+        <v>3.5589544750000002</v>
+      </c>
+      <c r="I53">
+        <v>34.119211739999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>619</v>
+      </c>
+      <c r="B54" t="s">
+        <v>191</v>
+      </c>
+      <c r="C54" t="s">
+        <v>516</v>
+      </c>
+      <c r="D54" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54">
+        <v>2008</v>
+      </c>
+      <c r="F54" s="2">
+        <v>39769</v>
+      </c>
+      <c r="G54">
+        <v>49</v>
+      </c>
+      <c r="H54">
+        <v>2.7025994390000001</v>
+      </c>
+      <c r="I54">
+        <v>33.634022100000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>619</v>
+      </c>
+      <c r="B55" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" t="s">
+        <v>526</v>
+      </c>
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55">
+        <v>2008</v>
+      </c>
+      <c r="F55" s="2">
+        <v>39769</v>
+      </c>
+      <c r="G55">
+        <v>49</v>
+      </c>
+      <c r="H55">
+        <v>1.0146477389999999</v>
+      </c>
+      <c r="I55">
+        <v>31.76252114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>619</v>
+      </c>
+      <c r="B56" t="s">
+        <v>191</v>
+      </c>
+      <c r="C56" t="s">
+        <v>439</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56">
+        <v>2008</v>
+      </c>
+      <c r="F56" s="2">
+        <v>39769</v>
+      </c>
+      <c r="G56">
+        <v>49</v>
+      </c>
+      <c r="H56">
+        <v>0.97792500800000004</v>
+      </c>
+      <c r="I56">
+        <v>32.890054309999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>631</v>
+      </c>
+      <c r="B57" t="s">
+        <v>191</v>
+      </c>
+      <c r="C57" t="s">
+        <v>632</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57">
+        <v>2008</v>
+      </c>
+      <c r="F57" s="2">
+        <v>39630</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1.8655297870000001</v>
+      </c>
+      <c r="I57">
+        <v>34.650008700000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I57">
+    <sortCondition ref="B2:B57"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/processed/Disasters_in_africa_2000_2018_processed.xlsx
+++ b/data/processed/Disasters_in_africa_2000_2018_processed.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nschl\Documents\AIMS_MSc_Project_CERI\GitHub\CERI-Project\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065F3D91-CADF-4D17-9DDE-FEC6C4947F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF7FE9D-6AF5-4225-AECF-00A4BD00298B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="2540" windowWidth="18800" windowHeight="9970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3940" yWindow="1330" windowWidth="18800" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Disasters" sheetId="1" r:id="rId1"/>
-    <sheet name="2008" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
-  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4213" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3961" uniqueCount="1063">
   <si>
     <t>disasterno</t>
   </si>
@@ -3213,18 +3209,6 @@
   </si>
   <si>
     <t>2018-0387</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>(blank)</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Count of Country</t>
   </si>
 </sst>
 </file>
@@ -3283,17 +3267,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3309,320 +3288,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Annes Chelfat" refreshedDate="45435.597760185185" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="58" xr:uid="{45D9F4DB-54A9-446D-A5AA-5F5F39E4E820}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="B1:B1048576" sheet="2008"/>
-  </cacheSource>
-  <cacheFields count="1">
-    <cacheField name="Country" numFmtId="0">
-      <sharedItems containsBlank="1" count="16">
-        <s v="Angola"/>
-        <s v="Burundi"/>
-        <s v="Ethiopia"/>
-        <s v="Ghana"/>
-        <s v="Kenya"/>
-        <s v="Madagascar"/>
-        <s v="Malawi"/>
-        <s v="Mozambique"/>
-        <s v="Namibia"/>
-        <s v="Niger"/>
-        <s v="Rwanda"/>
-        <s v="Senegal"/>
-        <s v="South Sudan"/>
-        <s v="Togo"/>
-        <s v="Uganda"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="58">
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="15"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{054A43DC-97EE-4C2A-AB8B-21F4D4087BD7}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M4:N21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="17">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="17">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Country" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3912,8 +3577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I989"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32582,1790 +32247,4 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638B5174-23BD-4202-87C8-4052EAFE3DD5}">
-  <dimension ref="A1:N57"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>588</v>
-      </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>589</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>2008</v>
-      </c>
-      <c r="F2" s="2">
-        <v>39478</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <v>-17.369043009999999</v>
-      </c>
-      <c r="I2">
-        <v>19.41441566</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>588</v>
-      </c>
-      <c r="B3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" t="s">
-        <v>590</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>2008</v>
-      </c>
-      <c r="F3" s="2">
-        <v>39478</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>-16.390299710000001</v>
-      </c>
-      <c r="I3">
-        <v>18.732975589999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>588</v>
-      </c>
-      <c r="B4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" t="s">
-        <v>591</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>2008</v>
-      </c>
-      <c r="F4" s="2">
-        <v>39478</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>-16.85911827</v>
-      </c>
-      <c r="I4">
-        <v>21.949973079999999</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>1063</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>588</v>
-      </c>
-      <c r="B5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" t="s">
-        <v>592</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>2008</v>
-      </c>
-      <c r="F5" s="2">
-        <v>39478</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
-      <c r="H5">
-        <v>-16.12568198</v>
-      </c>
-      <c r="I5">
-        <v>20.291123729999999</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="N5" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>588</v>
-      </c>
-      <c r="B6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" t="s">
-        <v>593</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>2008</v>
-      </c>
-      <c r="F6" s="2">
-        <v>39478</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-      <c r="H6">
-        <v>-15.492736320000001</v>
-      </c>
-      <c r="I6">
-        <v>12.72775373</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="N6" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>588</v>
-      </c>
-      <c r="B7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" t="s">
-        <v>400</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>2008</v>
-      </c>
-      <c r="F7" s="2">
-        <v>39478</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7">
-        <v>-14.74304821</v>
-      </c>
-      <c r="I7">
-        <v>14.95081339</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="N7" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>610</v>
-      </c>
-      <c r="B8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C8" t="s">
-        <v>611</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2008</v>
-      </c>
-      <c r="F8" s="2">
-        <v>39711</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>-3.5293111349999999</v>
-      </c>
-      <c r="I8">
-        <v>29.43399578</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="N8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>610</v>
-      </c>
-      <c r="B9" t="s">
-        <v>309</v>
-      </c>
-      <c r="C9" t="s">
-        <v>612</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>2008</v>
-      </c>
-      <c r="F9" s="2">
-        <v>39711</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>-3.534040627</v>
-      </c>
-      <c r="I9">
-        <v>29.368290949999999</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="N9" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>610</v>
-      </c>
-      <c r="B10" t="s">
-        <v>309</v>
-      </c>
-      <c r="C10" t="s">
-        <v>613</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>2008</v>
-      </c>
-      <c r="F10" s="2">
-        <v>39711</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>-3.62489902</v>
-      </c>
-      <c r="I10">
-        <v>29.41517369</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>610</v>
-      </c>
-      <c r="B11" t="s">
-        <v>309</v>
-      </c>
-      <c r="C11" t="s">
-        <v>614</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>2008</v>
-      </c>
-      <c r="F11" s="2">
-        <v>39711</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>-2.8107107060000001</v>
-      </c>
-      <c r="I11">
-        <v>29.88204687</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="N11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>634</v>
-      </c>
-      <c r="B12" t="s">
-        <v>309</v>
-      </c>
-      <c r="C12" t="s">
-        <v>310</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>2008</v>
-      </c>
-      <c r="F12" s="2">
-        <v>39692</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>-2.5440189950000001</v>
-      </c>
-      <c r="I12">
-        <v>30.157644470000001</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>617</v>
-      </c>
-      <c r="B13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" t="s">
-        <v>428</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>2008</v>
-      </c>
-      <c r="F13" s="2">
-        <v>39768</v>
-      </c>
-      <c r="G13">
-        <v>11</v>
-      </c>
-      <c r="H13">
-        <v>5.4521770309999997</v>
-      </c>
-      <c r="I13">
-        <v>44.760284069999997</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="N13" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>617</v>
-      </c>
-      <c r="B14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" t="s">
-        <v>427</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2008</v>
-      </c>
-      <c r="F14" s="2">
-        <v>39768</v>
-      </c>
-      <c r="G14">
-        <v>11</v>
-      </c>
-      <c r="H14">
-        <v>5.7392423920000004</v>
-      </c>
-      <c r="I14">
-        <v>44.173145580000003</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>628</v>
-      </c>
-      <c r="B15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" t="s">
-        <v>377</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15">
-        <v>2008</v>
-      </c>
-      <c r="F15" s="2">
-        <v>39569</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>7.5072366109999997</v>
-      </c>
-      <c r="I15">
-        <v>38.765441580000001</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="N15" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>625</v>
-      </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" t="s">
-        <v>626</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16">
-        <v>2008</v>
-      </c>
-      <c r="F16" s="2">
-        <v>39630</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>10.296970119999999</v>
-      </c>
-      <c r="I16">
-        <v>-1.0648793080000001</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="N16" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>618</v>
-      </c>
-      <c r="B17" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" t="s">
-        <v>432</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2008</v>
-      </c>
-      <c r="F17" s="2">
-        <v>39762</v>
-      </c>
-      <c r="G17">
-        <v>17</v>
-      </c>
-      <c r="H17">
-        <v>3.4384239860000001</v>
-      </c>
-      <c r="I17">
-        <v>40.736728749999997</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="N17" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>618</v>
-      </c>
-      <c r="B18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" t="s">
-        <v>433</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>2008</v>
-      </c>
-      <c r="F18" s="2">
-        <v>39762</v>
-      </c>
-      <c r="G18">
-        <v>17</v>
-      </c>
-      <c r="H18">
-        <v>-0.49032983899999999</v>
-      </c>
-      <c r="I18">
-        <v>40.205213229999998</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="N18" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>618</v>
-      </c>
-      <c r="B19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <v>2008</v>
-      </c>
-      <c r="F19" s="2">
-        <v>39762</v>
-      </c>
-      <c r="G19">
-        <v>17</v>
-      </c>
-      <c r="H19">
-        <v>-0.98966184599999996</v>
-      </c>
-      <c r="I19">
-        <v>34.365570239999997</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="N19" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>629</v>
-      </c>
-      <c r="B20" t="s">
-        <v>185</v>
-      </c>
-      <c r="C20" t="s">
-        <v>630</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20">
-        <v>2008</v>
-      </c>
-      <c r="F20" s="2">
-        <v>39630</v>
-      </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
-      <c r="H20">
-        <v>0.38840393699999998</v>
-      </c>
-      <c r="I20">
-        <v>35.74599628</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>585</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>586</v>
-      </c>
-      <c r="D21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21">
-        <v>2008</v>
-      </c>
-      <c r="F21" s="2">
-        <v>39474</v>
-      </c>
-      <c r="G21">
-        <v>12</v>
-      </c>
-      <c r="H21">
-        <v>-17.714169309999999</v>
-      </c>
-      <c r="I21">
-        <v>44.808304079999999</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>1065</v>
-      </c>
-      <c r="N21" s="5">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>585</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>587</v>
-      </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22">
-        <v>2008</v>
-      </c>
-      <c r="F22" s="2">
-        <v>39474</v>
-      </c>
-      <c r="G22">
-        <v>12</v>
-      </c>
-      <c r="H22">
-        <v>-16.271912180000001</v>
-      </c>
-      <c r="I22">
-        <v>46.217586099999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>598</v>
-      </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" t="s">
-        <v>599</v>
-      </c>
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23">
-        <v>2008</v>
-      </c>
-      <c r="F23" s="2">
-        <v>39495</v>
-      </c>
-      <c r="G23">
-        <v>93</v>
-      </c>
-      <c r="H23">
-        <v>-17.225725700000002</v>
-      </c>
-      <c r="I23">
-        <v>46.997011290000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>635</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" t="s">
-        <v>636</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24">
-        <v>2008</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>-23.055979019999999</v>
-      </c>
-      <c r="I24">
-        <v>44.43057924</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>627</v>
-      </c>
-      <c r="B25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" t="s">
-        <v>223</v>
-      </c>
-      <c r="D25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25">
-        <v>2008</v>
-      </c>
-      <c r="F25" s="2">
-        <v>39783</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>-15.036430709999999</v>
-      </c>
-      <c r="I25">
-        <v>35.056191099999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>600</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" t="s">
-        <v>601</v>
-      </c>
-      <c r="D26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26">
-        <v>2008</v>
-      </c>
-      <c r="F26" s="2">
-        <v>39515</v>
-      </c>
-      <c r="G26">
-        <v>9</v>
-      </c>
-      <c r="H26">
-        <v>-15.059299319999999</v>
-      </c>
-      <c r="I26">
-        <v>40.518645419999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>600</v>
-      </c>
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27">
-        <v>2008</v>
-      </c>
-      <c r="F27" s="2">
-        <v>39515</v>
-      </c>
-      <c r="G27">
-        <v>9</v>
-      </c>
-      <c r="H27">
-        <v>-16.355318650000001</v>
-      </c>
-      <c r="I27">
-        <v>39.269420770000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>600</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28">
-        <v>2008</v>
-      </c>
-      <c r="F28" s="2">
-        <v>39515</v>
-      </c>
-      <c r="G28">
-        <v>9</v>
-      </c>
-      <c r="H28">
-        <v>-16.651333040000001</v>
-      </c>
-      <c r="I28">
-        <v>36.98316268</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>624</v>
-      </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" t="s">
-        <v>566</v>
-      </c>
-      <c r="D29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29">
-        <v>2008</v>
-      </c>
-      <c r="F29" s="2">
-        <v>39810</v>
-      </c>
-      <c r="G29">
-        <v>25</v>
-      </c>
-      <c r="H29">
-        <v>-20.512286509999999</v>
-      </c>
-      <c r="I29">
-        <v>32.944521100000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>624</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" t="s">
-        <v>155</v>
-      </c>
-      <c r="D30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30">
-        <v>2008</v>
-      </c>
-      <c r="F30" s="2">
-        <v>39810</v>
-      </c>
-      <c r="G30">
-        <v>25</v>
-      </c>
-      <c r="H30">
-        <v>-25.888582849999999</v>
-      </c>
-      <c r="I30">
-        <v>32.560039539999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>624</v>
-      </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31">
-        <v>2008</v>
-      </c>
-      <c r="F31" s="2">
-        <v>39810</v>
-      </c>
-      <c r="G31">
-        <v>25</v>
-      </c>
-      <c r="H31">
-        <v>-22.808879009999998</v>
-      </c>
-      <c r="I31">
-        <v>34.514646130000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>624</v>
-      </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>577</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2008</v>
-      </c>
-      <c r="F32" s="2">
-        <v>39810</v>
-      </c>
-      <c r="G32">
-        <v>25</v>
-      </c>
-      <c r="H32">
-        <v>-23.32047206</v>
-      </c>
-      <c r="I32">
-        <v>32.804083499999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>633</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" t="s">
-        <v>155</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33">
-        <v>2008</v>
-      </c>
-      <c r="F33" s="2">
-        <v>39783</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>-25.527591990000001</v>
-      </c>
-      <c r="I33">
-        <v>32.45011452</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>588</v>
-      </c>
-      <c r="B34" t="s">
-        <v>228</v>
-      </c>
-      <c r="C34" t="s">
-        <v>594</v>
-      </c>
-      <c r="D34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34">
-        <v>2008</v>
-      </c>
-      <c r="F34" s="2">
-        <v>39477</v>
-      </c>
-      <c r="G34">
-        <v>42</v>
-      </c>
-      <c r="H34">
-        <v>-18.279644080000001</v>
-      </c>
-      <c r="I34">
-        <v>14.894576750000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>588</v>
-      </c>
-      <c r="B35" t="s">
-        <v>228</v>
-      </c>
-      <c r="C35" t="s">
-        <v>595</v>
-      </c>
-      <c r="D35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35">
-        <v>2008</v>
-      </c>
-      <c r="F35" s="2">
-        <v>39477</v>
-      </c>
-      <c r="G35">
-        <v>42</v>
-      </c>
-      <c r="H35">
-        <v>-18.430097830000001</v>
-      </c>
-      <c r="I35">
-        <v>15.722916939999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>588</v>
-      </c>
-      <c r="B36" t="s">
-        <v>228</v>
-      </c>
-      <c r="C36" t="s">
-        <v>596</v>
-      </c>
-      <c r="D36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36">
-        <v>2008</v>
-      </c>
-      <c r="F36" s="2">
-        <v>39477</v>
-      </c>
-      <c r="G36">
-        <v>42</v>
-      </c>
-      <c r="H36">
-        <v>-18.598331659999999</v>
-      </c>
-      <c r="I36">
-        <v>17.004533930000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>588</v>
-      </c>
-      <c r="B37" t="s">
-        <v>228</v>
-      </c>
-      <c r="C37" t="s">
-        <v>597</v>
-      </c>
-      <c r="D37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37">
-        <v>2008</v>
-      </c>
-      <c r="F37" s="2">
-        <v>39477</v>
-      </c>
-      <c r="G37">
-        <v>42</v>
-      </c>
-      <c r="H37">
-        <v>-17.584412589999999</v>
-      </c>
-      <c r="I37">
-        <v>16.813122499999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>607</v>
-      </c>
-      <c r="B38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" t="s">
-        <v>419</v>
-      </c>
-      <c r="D38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38">
-        <v>2008</v>
-      </c>
-      <c r="F38" s="2">
-        <v>39630</v>
-      </c>
-      <c r="G38">
-        <v>7</v>
-      </c>
-      <c r="H38">
-        <v>14.98697187</v>
-      </c>
-      <c r="I38">
-        <v>10.03136022</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>583</v>
-      </c>
-      <c r="B39" t="s">
-        <v>311</v>
-      </c>
-      <c r="C39" t="s">
-        <v>584</v>
-      </c>
-      <c r="D39" t="s">
-        <v>271</v>
-      </c>
-      <c r="E39">
-        <v>2008</v>
-      </c>
-      <c r="F39" s="2">
-        <v>39481</v>
-      </c>
-      <c r="G39">
-        <v>36</v>
-      </c>
-      <c r="H39">
-        <v>-2.5612705359999999</v>
-      </c>
-      <c r="I39">
-        <v>29.080461509999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>615</v>
-      </c>
-      <c r="B40" t="s">
-        <v>311</v>
-      </c>
-      <c r="C40" t="s">
-        <v>477</v>
-      </c>
-      <c r="D40" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40">
-        <v>2008</v>
-      </c>
-      <c r="F40" s="2">
-        <v>39722</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>-1.6659980059999999</v>
-      </c>
-      <c r="I40">
-        <v>29.331068680000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>615</v>
-      </c>
-      <c r="B41" t="s">
-        <v>311</v>
-      </c>
-      <c r="C41" t="s">
-        <v>616</v>
-      </c>
-      <c r="D41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41">
-        <v>2008</v>
-      </c>
-      <c r="F41" s="2">
-        <v>39722</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>-2.1834982780000001</v>
-      </c>
-      <c r="I41">
-        <v>30.45552992</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>608</v>
-      </c>
-      <c r="B42" t="s">
-        <v>165</v>
-      </c>
-      <c r="C42" t="s">
-        <v>609</v>
-      </c>
-      <c r="D42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42">
-        <v>2008</v>
-      </c>
-      <c r="F42" s="2">
-        <v>39675</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>14.7820716</v>
-      </c>
-      <c r="I42">
-        <v>-16.119819410000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>608</v>
-      </c>
-      <c r="B43" t="s">
-        <v>165</v>
-      </c>
-      <c r="C43" t="s">
-        <v>538</v>
-      </c>
-      <c r="D43" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43">
-        <v>2008</v>
-      </c>
-      <c r="F43" s="2">
-        <v>39675</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>13.97026542</v>
-      </c>
-      <c r="I43">
-        <v>-15.9316131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>620</v>
-      </c>
-      <c r="B44" t="s">
-        <v>621</v>
-      </c>
-      <c r="C44" t="s">
-        <v>622</v>
-      </c>
-      <c r="D44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44">
-        <v>2008</v>
-      </c>
-      <c r="F44" s="2">
-        <v>39776</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>7.3787928520000001</v>
-      </c>
-      <c r="I44">
-        <v>32.327645740000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>620</v>
-      </c>
-      <c r="B45" t="s">
-        <v>621</v>
-      </c>
-      <c r="C45" t="s">
-        <v>623</v>
-      </c>
-      <c r="D45" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45">
-        <v>2008</v>
-      </c>
-      <c r="F45" s="2">
-        <v>39776</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>9.8880356329999994</v>
-      </c>
-      <c r="I45">
-        <v>32.795899089999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>602</v>
-      </c>
-      <c r="B46" t="s">
-        <v>603</v>
-      </c>
-      <c r="C46" t="s">
-        <v>604</v>
-      </c>
-      <c r="D46" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46">
-        <v>2008</v>
-      </c>
-      <c r="F46" s="2">
-        <v>39630</v>
-      </c>
-      <c r="G46">
-        <v>6</v>
-      </c>
-      <c r="H46">
-        <v>7.5420313439999997</v>
-      </c>
-      <c r="I46">
-        <v>1.0015443820000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>602</v>
-      </c>
-      <c r="B47" t="s">
-        <v>603</v>
-      </c>
-      <c r="C47" t="s">
-        <v>605</v>
-      </c>
-      <c r="D47" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47">
-        <v>2008</v>
-      </c>
-      <c r="F47" s="2">
-        <v>39630</v>
-      </c>
-      <c r="G47">
-        <v>6</v>
-      </c>
-      <c r="H47">
-        <v>6.9763817069999998</v>
-      </c>
-      <c r="I47">
-        <v>0.75947929599999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>602</v>
-      </c>
-      <c r="B48" t="s">
-        <v>603</v>
-      </c>
-      <c r="C48" t="s">
-        <v>606</v>
-      </c>
-      <c r="D48" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48">
-        <v>2008</v>
-      </c>
-      <c r="F48" s="2">
-        <v>39630</v>
-      </c>
-      <c r="G48">
-        <v>6</v>
-      </c>
-      <c r="H48">
-        <v>6.3732584049999996</v>
-      </c>
-      <c r="I48">
-        <v>1.4958612200000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>619</v>
-      </c>
-      <c r="B49" t="s">
-        <v>191</v>
-      </c>
-      <c r="C49" t="s">
-        <v>521</v>
-      </c>
-      <c r="D49" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49">
-        <v>2008</v>
-      </c>
-      <c r="F49" s="2">
-        <v>39769</v>
-      </c>
-      <c r="G49">
-        <v>49</v>
-      </c>
-      <c r="H49">
-        <v>3.2289404080000002</v>
-      </c>
-      <c r="I49">
-        <v>31.76921686</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>619</v>
-      </c>
-      <c r="B50" t="s">
-        <v>191</v>
-      </c>
-      <c r="C50" t="s">
-        <v>523</v>
-      </c>
-      <c r="D50" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50">
-        <v>2008</v>
-      </c>
-      <c r="F50" s="2">
-        <v>39769</v>
-      </c>
-      <c r="G50">
-        <v>49</v>
-      </c>
-      <c r="H50">
-        <v>3.530972131</v>
-      </c>
-      <c r="I50">
-        <v>31.671506569999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>619</v>
-      </c>
-      <c r="B51" t="s">
-        <v>191</v>
-      </c>
-      <c r="C51" t="s">
-        <v>518</v>
-      </c>
-      <c r="D51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51">
-        <v>2008</v>
-      </c>
-      <c r="F51" s="2">
-        <v>39769</v>
-      </c>
-      <c r="G51">
-        <v>49</v>
-      </c>
-      <c r="H51">
-        <v>1.8651587270000001</v>
-      </c>
-      <c r="I51">
-        <v>34.64910502</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>619</v>
-      </c>
-      <c r="B52" t="s">
-        <v>191</v>
-      </c>
-      <c r="C52" t="s">
-        <v>517</v>
-      </c>
-      <c r="D52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52">
-        <v>2008</v>
-      </c>
-      <c r="F52" s="2">
-        <v>39769</v>
-      </c>
-      <c r="G52">
-        <v>49</v>
-      </c>
-      <c r="H52">
-        <v>2.504859138</v>
-      </c>
-      <c r="I52">
-        <v>34.392409450000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>619</v>
-      </c>
-      <c r="B53" t="s">
-        <v>191</v>
-      </c>
-      <c r="C53" t="s">
-        <v>237</v>
-      </c>
-      <c r="D53" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53">
-        <v>2008</v>
-      </c>
-      <c r="F53" s="2">
-        <v>39769</v>
-      </c>
-      <c r="G53">
-        <v>49</v>
-      </c>
-      <c r="H53">
-        <v>3.5589544750000002</v>
-      </c>
-      <c r="I53">
-        <v>34.119211739999997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>619</v>
-      </c>
-      <c r="B54" t="s">
-        <v>191</v>
-      </c>
-      <c r="C54" t="s">
-        <v>516</v>
-      </c>
-      <c r="D54" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54">
-        <v>2008</v>
-      </c>
-      <c r="F54" s="2">
-        <v>39769</v>
-      </c>
-      <c r="G54">
-        <v>49</v>
-      </c>
-      <c r="H54">
-        <v>2.7025994390000001</v>
-      </c>
-      <c r="I54">
-        <v>33.634022100000003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>619</v>
-      </c>
-      <c r="B55" t="s">
-        <v>191</v>
-      </c>
-      <c r="C55" t="s">
-        <v>526</v>
-      </c>
-      <c r="D55" t="s">
-        <v>20</v>
-      </c>
-      <c r="E55">
-        <v>2008</v>
-      </c>
-      <c r="F55" s="2">
-        <v>39769</v>
-      </c>
-      <c r="G55">
-        <v>49</v>
-      </c>
-      <c r="H55">
-        <v>1.0146477389999999</v>
-      </c>
-      <c r="I55">
-        <v>31.76252114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>619</v>
-      </c>
-      <c r="B56" t="s">
-        <v>191</v>
-      </c>
-      <c r="C56" t="s">
-        <v>439</v>
-      </c>
-      <c r="D56" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56">
-        <v>2008</v>
-      </c>
-      <c r="F56" s="2">
-        <v>39769</v>
-      </c>
-      <c r="G56">
-        <v>49</v>
-      </c>
-      <c r="H56">
-        <v>0.97792500800000004</v>
-      </c>
-      <c r="I56">
-        <v>32.890054309999996</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>631</v>
-      </c>
-      <c r="B57" t="s">
-        <v>191</v>
-      </c>
-      <c r="C57" t="s">
-        <v>632</v>
-      </c>
-      <c r="D57" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57">
-        <v>2008</v>
-      </c>
-      <c r="F57" s="2">
-        <v>39630</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>1.8655297870000001</v>
-      </c>
-      <c r="I57">
-        <v>34.650008700000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I57">
-    <sortCondition ref="B2:B57"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/processed/Disasters_in_africa_2000_2018_processed.xlsx
+++ b/data/processed/Disasters_in_africa_2000_2018_processed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nschl\Documents\AIMS_MSc_Project_CERI\GitHub\CERI-Project\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF7FE9D-6AF5-4225-AECF-00A4BD00298B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9715D58B-4681-4CA6-B485-55FE467D5E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3940" yWindow="1330" windowWidth="18800" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3578,7 +3578,7 @@
   <dimension ref="A1:I989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I3" sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
